--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28455" windowHeight="12060"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="FRAME" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>CS</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>required_struct</t>
+  </si>
+  <si>
+    <t>optional</t>
   </si>
   <si>
     <t>uint32</t>
@@ -69,6 +72,9 @@
     <t>frame_id</t>
   </si>
   <si>
+    <t>handle_id</t>
+  </si>
+  <si>
     <t>编号</t>
   </si>
   <si>
@@ -99,6 +105,9 @@
     <t>对应的框id</t>
   </si>
   <si>
+    <t>对应的处理id</t>
+  </si>
+  <si>
     <t>hello</t>
   </si>
   <si>
@@ -115,6 +124,9 @@
   </si>
   <si>
     <t>不可以</t>
+  </si>
+  <si>
+    <t>bag</t>
   </si>
 </sst>
 </file>
@@ -136,8 +148,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -146,7 +166,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,37 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,15 +201,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,40 +216,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,8 +244,55 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,13 +307,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +319,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +343,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +373,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,13 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,49 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,19 +451,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +476,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,11 +554,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,9 +611,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,10 +627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,137 +639,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,6 +795,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1123,10 +1147,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD9"/>
+  <dimension ref="A1:XFD10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1138,8 +1162,9 @@
     <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="11" max="12" width="13" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384">
@@ -1200,11 +1225,21 @@
       <c r="S1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
+      <c r="T1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
@@ -17566,7 +17601,7 @@
       <c r="XFC1" s="4"/>
       <c r="XFD1" s="4"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -17601,7 +17636,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>1</v>
@@ -17610,7 +17645,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>1</v>
@@ -17619,191 +17654,248 @@
         <v>1</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="2" t="s">
+      <c r="T2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="V2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="6"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" s="8">
         <v>5</v>
       </c>
       <c r="I3" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-    </row>
-    <row r="4" ht="27" spans="1:21">
-      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="T3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="6"/>
+    </row>
+    <row r="4" ht="27" spans="1:25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>15</v>
+      <c r="K4" s="10" t="s">
+        <v>17</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>15</v>
+      <c r="N4" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>15</v>
+      <c r="Q4" s="10" t="s">
+        <v>17</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="R4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>15</v>
+      <c r="T4" s="7" t="s">
+        <v>17</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="U4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="8"/>
-      <c r="U4" s="7"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" spans="1:19">
-      <c r="A5" s="1" t="s">
+      <c r="W4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="X4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:24">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -17820,7 +17912,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -17829,25 +17921,25 @@
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>29</v>
+      <c r="M6" s="2" t="s">
+        <v>32</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>2</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>30</v>
+      <c r="P6" s="2" t="s">
+        <v>33</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -17864,7 +17956,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -17873,10 +17965,13 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K7" s="2">
-        <v>-1</v>
+        <v>4</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10001</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -17896,7 +17991,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -17905,13 +18000,13 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -17928,7 +18023,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -17937,27 +18032,59 @@
         <v>2</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>32</v>
+      <c r="M9" s="2" t="s">
+        <v>35</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1:H1 I1:S1 T1:XFD1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1:H1 I1:K1 L1 M1:N1 O1 P1:Q1 R1 S1:T1 U1 V1:W1 X1 Y1:XFD1">
       <formula1>"CS,S,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:K2 L2:M2 N2:O2 P2:Q2 R2:S2 T2:U2 V2:XFD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:K2 L2 M2:N2 O2 P2:Q2 R2 S2:T2 U2 V2:W2 X2 Y2 Z2:XFD2">
       <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:K3 L3 M3 N3 O3 P3 Q3 R3 S3 T3:U3 V3:XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:K3 L3 M3 N3 O3 P3 Q3 R3 S3 T3 U3 V3 W3 X3 Y3 Z3:XFD3">
       <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -15,8 +15,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+横向0
+纵向1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>CS</t>
   </si>
@@ -24,13 +57,13 @@
     <t>required</t>
   </si>
   <si>
+    <t>optional</t>
+  </si>
+  <si>
     <t>repeated</t>
   </si>
   <si>
     <t>required_struct</t>
-  </si>
-  <si>
-    <t>optional</t>
   </si>
   <si>
     <t>uint32</t>
@@ -57,22 +90,19 @@
     <t>height</t>
   </si>
   <si>
-    <t>discription</t>
+    <t>description</t>
   </si>
   <si>
     <t>direction</t>
   </si>
   <si>
+    <t>handle_id</t>
+  </si>
+  <si>
     <t>option</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>frame_id</t>
-  </si>
-  <si>
-    <t>handle_id</t>
   </si>
   <si>
     <t>编号</t>
@@ -93,7 +123,10 @@
     <t>描述</t>
   </si>
   <si>
-    <t>选项方向：横向0，纵向1</t>
+    <t>选项方向</t>
+  </si>
+  <si>
+    <t>对应的处理id</t>
   </si>
   <si>
     <t>选项数目</t>
@@ -103,9 +136,6 @@
   </si>
   <si>
     <t>对应的框id</t>
-  </si>
-  <si>
-    <t>对应的处理id</t>
   </si>
   <si>
     <t>hello</t>
@@ -134,9 +164,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -148,11 +178,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,11 +201,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,28 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +245,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -230,34 +261,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,7 +279,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,6 +310,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,19 +349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,19 +361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,19 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +409,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -427,7 +427,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,49 +511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +552,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -548,24 +587,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,6 +632,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -627,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,133 +669,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1147,27 +1177,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD10"/>
+  <dimension ref="A1:XEY10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="9.375" style="2" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="19.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.25" style="2" customWidth="1"/>
-    <col min="11" max="12" width="13" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="12.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384">
+    <row r="1" spans="1:16379">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1228,18 +1266,10 @@
       <c r="T1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
@@ -17595,13 +17625,8 @@
       <c r="XEW1" s="4"/>
       <c r="XEX1" s="4"/>
       <c r="XEY1" s="4"/>
-      <c r="XEZ1" s="4"/>
-      <c r="XFA1" s="4"/>
-      <c r="XFB1" s="4"/>
-      <c r="XFC1" s="4"/>
-      <c r="XFD1" s="4"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -17623,20 +17648,20 @@
       <c r="G2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>1</v>
+      <c r="J2" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>1</v>
@@ -17645,7 +17670,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>1</v>
@@ -17654,7 +17679,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>1</v>
@@ -17662,21 +17687,9 @@
       <c r="T2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -17698,17 +17711,17 @@
       <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="8">
         <v>5</v>
       </c>
-      <c r="I3" s="8">
-        <v>3</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>7</v>
+      <c r="J3" s="8">
+        <v>2</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>6</v>
@@ -17720,13 +17733,13 @@
         <v>6</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>6</v>
@@ -17737,21 +17750,9 @@
       <c r="T3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="6"/>
+      <c r="U3" s="6"/>
     </row>
-    <row r="4" ht="27" spans="1:25">
+    <row r="4" spans="1:21">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -17773,90 +17774,78 @@
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="M4" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:20">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y4" s="7"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" spans="1:24">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>27</v>
@@ -17865,16 +17854,16 @@
         <v>28</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>27</v>
@@ -17882,20 +17871,8 @@
       <c r="T5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -17912,30 +17889,30 @@
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>3</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>31</v>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2">
         <v>2</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>33</v>
+      <c r="O6" s="2" t="s">
+        <v>32</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="P6" s="2">
         <v>3</v>
       </c>
     </row>
@@ -17956,25 +17933,25 @@
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
+        <v>10001</v>
+      </c>
+      <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>34</v>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>4</v>
       </c>
-      <c r="L7" s="2">
-        <v>10001</v>
-      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -17991,18 +17968,18 @@
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>34</v>
+      <c r="K8" s="2" t="s">
+        <v>33</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -18023,28 +18000,28 @@
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>2</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>34</v>
+      <c r="K9" s="2" t="s">
+        <v>33</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -18061,36 +18038,40 @@
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
+        <v>10002</v>
+      </c>
+      <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>34</v>
+      <c r="K10" s="2" t="s">
+        <v>33</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1:H1 I1:K1 L1 M1:N1 O1 P1:Q1 R1 S1:T1 U1 V1:W1 X1 Y1:XFD1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2 I2:L2 M2:N2 O2:P2 Q2:R2 S2:T2 U2 V2:XFD2">
+      <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1:G1 H1 I1 J1:L1 M1:N1 O1:P1 Q1:R1 S1:T1 U1:XFD1">
       <formula1>"CS,S,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:K2 L2 M2:N2 O2 P2:Q2 R2 S2:T2 U2 V2:W2 X2 Y2 Z2:XFD2">
-      <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:K3 L3 M3 N3 O3 P3 Q3 R3 S3 T3 U3 V3 W3 X3 Y3 Z3:XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:G3 H3 I3:L3 M3 N3 O3 P3 Q3 R3 S3 T3 U3 V3:XFD3">
       <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>CS</t>
   </si>
@@ -138,7 +138,7 @@
     <t>对应的框id</t>
   </si>
   <si>
-    <t>hello</t>
+    <t>你好</t>
   </si>
   <si>
     <t>show bag</t>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>show hello</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
   <si>
     <t>OK</t>
@@ -179,40 +182,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,7 +196,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,11 +216,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,11 +231,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,6 +263,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -286,10 +279,34 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,21 +319,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,19 +346,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,19 +382,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,13 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,31 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,13 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,25 +490,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,15 +551,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,9 +587,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,17 +611,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,11 +631,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,10 +660,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +672,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1180,7 +1183,7 @@
   <dimension ref="A1:XEY10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17948,7 +17951,7 @@
         <v>33</v>
       </c>
       <c r="L7" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -17977,7 +17980,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -18009,13 +18012,13 @@
         <v>2</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N9" s="2">
         <v>-1</v>
@@ -18038,7 +18041,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -18050,7 +18053,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -18058,11 +18061,11 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1:G1 H1 I1 J1:L1 M1:N1 O1:P1 Q1:R1 S1:T1 U1:XFD1">
+      <formula1>"CS,S,C"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2 I2:L2 M2:N2 O2:P2 Q2:R2 S2:T2 U2 V2:XFD2">
       <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1:G1 H1 I1 J1:L1 M1:N1 O1:P1 Q1:R1 S1:T1 U1:XFD1">
-      <formula1>"CS,S,C"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:G3 H3 I3:L3 M3 N3 O3 P3 Q3 R3 S3 T3 U3 V3:XFD3">
       <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>

--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="22368" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="FRAME" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
     <t>对应的框id</t>
   </si>
   <si>
-    <t>你好</t>
+    <t>werqwer</t>
   </si>
   <si>
     <t>show bag</t>
@@ -167,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -181,8 +181,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,14 +235,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,21 +243,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +264,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -255,16 +296,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,38 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -317,9 +318,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,25 +346,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,13 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,13 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,25 +472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,25 +490,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,43 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,6 +551,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,59 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -652,6 +623,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -660,10 +660,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,34 +672,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,97 +711,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,28 +1183,28 @@
   <dimension ref="A1:XEY10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="9.375" style="2" customWidth="1"/>
+    <col min="1" max="3" width="9.37962962962963" style="2" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.6296296296296" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.1296296296296" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.6296296296296" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.6296296296296" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.1296296296296" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.6296296296296" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.1296296296296" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.6296296296296" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.1296296296296" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.6296296296296" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.1296296296296" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.6296296296296" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.1296296296296" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -17629,7 +17629,7 @@
       <c r="XEX1" s="4"/>
       <c r="XEY1" s="4"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" ht="28.8" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -17755,7 +17755,7 @@
       </c>
       <c r="U3" s="6"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" ht="28.8" spans="1:21">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -17816,7 +17816,7 @@
       </c>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:20">
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -18061,14 +18061,14 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:G3 H3 I3:L3 M3 N3 O3 P3 Q3 R3 S3 T3 U3 V3:XFD3">
+      <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1:G1 H1 I1 J1:L1 M1:N1 O1:P1 Q1:R1 S1:T1 U1:XFD1">
       <formula1>"CS,S,C"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2 I2:L2 M2:N2 O2:P2 Q2:R2 S2:T2 U2 V2:XFD2">
       <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:G3 H3 I3:L3 M3 N3 O3 P3 Q3 R3 S3 T3 U3 V3:XFD3">
-      <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18087,7 +18087,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -18104,7 +18104,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9347"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="22368" windowHeight="9288"/>
   </bookViews>
   <sheets>
     <sheet name="FRAME" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
 </workbook>
 </file>
 
@@ -21,7 +22,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="45">
   <si>
     <t>CS</t>
   </si>
@@ -64,9 +65,6 @@
   </si>
   <si>
     <t>required_struct</t>
-  </si>
-  <si>
-    <t>uint32</t>
   </si>
   <si>
     <t>int32</t>
@@ -138,19 +136,10 @@
     <t>对应的框id</t>
   </si>
   <si>
-    <t>werqwer</t>
-  </si>
-  <si>
     <t>show bag</t>
   </si>
   <si>
-    <t>show author</t>
-  </si>
-  <si>
     <t>show hello</t>
-  </si>
-  <si>
-    <t>error</t>
   </si>
   <si>
     <t>OK</t>
@@ -161,18 +150,60 @@
   <si>
     <t>bag</t>
   </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎光临！请随便挑选</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误bag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎来到Lost世界！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个超级牛逼的武器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不买</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有商品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,150 +213,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,204 +238,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -554,251 +272,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -837,58 +313,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1178,56 +612,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:XEY10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XEZ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.37962962962963" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="12.6296296296296" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.6296296296296" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.1296296296296" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.6296296296296" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.6296296296296" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.1296296296296" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.6296296296296" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.1296296296296" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.6296296296296" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.1296296296296" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.6296296296296" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.1296296296296" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.6296296296296" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.1296296296296" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="1" max="6" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16379">
+    <row r="1" spans="1:16380" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -1269,7 +701,9 @@
       <c r="T1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="4"/>
+      <c r="U1" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
@@ -17628,8 +17062,9 @@
       <c r="XEW1" s="4"/>
       <c r="XEX1" s="4"/>
       <c r="XEY1" s="4"/>
+      <c r="XEZ1" s="4"/>
     </row>
-    <row r="2" ht="28.8" spans="1:21">
+    <row r="2" spans="1:16380" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -17639,29 +17074,29 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>1</v>
@@ -17690,424 +17125,492 @@
       <c r="T2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="6"/>
+      <c r="U2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:16380" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="8">
         <v>5</v>
       </c>
+      <c r="I3" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="J3" s="8">
+        <v>5</v>
+      </c>
+      <c r="K3" s="8">
         <v>2</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="6"/>
+      <c r="U3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="6"/>
     </row>
-    <row r="4" ht="28.8" spans="1:21">
+    <row r="4" spans="1:16380" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
+      <c r="L4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="10" t="s">
+      <c r="N4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" s="7"/>
+    </row>
+    <row r="5" spans="1:16380" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="U4" s="7"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:20">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16380" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0</v>
       </c>
       <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>20</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="Q6" s="2">
         <v>3</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="2">
-        <v>2</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="2">
-        <v>3</v>
-      </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:16380" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>20</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>10001</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:16380" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>20</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="2">
+        <v>10003</v>
+      </c>
+      <c r="J8" s="2">
         <v>1</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
+      <c r="L8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="2">
+        <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16380" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>20</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>2</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
         <v>1</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="N9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:16380" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>4</v>
       </c>
       <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>20</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>4</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>10002</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16380" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="2">
         <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10003</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="2">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:G3 H3 I3:L3 M3 N3 O3 P3 Q3 R3 S3 T3 U3 V3:XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD1">
+      <formula1>"CS,S,C"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:XFD2">
+      <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:XFD3">
       <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1:G1 H1 I1 J1:L1 M1:N1 O1:P1 Q1:R1 S1:T1 U1:XFD1">
-      <formula1>"CS,S,C"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2 I2:L2 M2:N2 O2:P2 Q2:R2 S2:T2 U2 V2:XFD2">
-      <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="22368" windowHeight="9288"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="FRAME" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="类型说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>CS</t>
   </si>
@@ -74,6 +73,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t>x</t>
@@ -106,6 +108,9 @@
     <t>编号</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
     <t>横坐标</t>
   </si>
   <si>
@@ -136,10 +141,25 @@
     <t>对应的框id</t>
   </si>
   <si>
+    <t>欢迎来到Lost世界！</t>
+  </si>
+  <si>
     <t>show bag</t>
   </si>
   <si>
+    <t>商店</t>
+  </si>
+  <si>
     <t>show hello</t>
+  </si>
+  <si>
+    <t>错误bag</t>
+  </si>
+  <si>
+    <t>欢迎光临！请随便挑选</t>
+  </si>
+  <si>
+    <t>没有商品</t>
   </si>
   <si>
     <t>OK</t>
@@ -151,59 +171,41 @@
     <t>bag</t>
   </si>
   <si>
-    <t>CS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎光临！请随便挑选</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误bag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎来到Lost世界！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>这是一个超级牛逼的武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>买</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>不买</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>没有商品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>背包</t>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>商店物品</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,24 +214,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,18 +367,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -272,9 +587,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -313,16 +870,58 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -612,40 +1211,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:XEZ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="6" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="9.55833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.8833333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.5583333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.6666666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.55833333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.775" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.55833333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.775" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.55833333333333" style="2" customWidth="1"/>
     <col min="16" max="16" width="14" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.44140625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.88671875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.55833333333333" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.4416666666667" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9.55833333333333" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.8833333333333" style="2" customWidth="1"/>
+    <col min="21" max="21" width="9.55833333333333" style="2" customWidth="1"/>
     <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16380">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -17064,7 +17664,7 @@
       <c r="XEY1" s="4"/>
       <c r="XEZ1" s="4"/>
     </row>
-    <row r="2" spans="1:16380" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" ht="27" spans="1:22">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -17130,12 +17730,12 @@
       </c>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -17196,133 +17796,133 @@
       </c>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:16380" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -17342,7 +17942,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -17351,25 +17951,25 @@
         <v>3</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2">
         <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O6" s="2">
         <v>2</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -17389,7 +17989,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -17401,18 +18001,18 @@
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M7" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -17427,7 +18027,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -17439,13 +18039,13 @@
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M8" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -17465,7 +18065,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -17474,24 +18074,24 @@
         <v>2</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="O9" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -17506,7 +18106,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -17518,18 +18118,18 @@
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M10" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>5</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -17544,7 +18144,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -17556,61 +18156,196 @@
         <v>2</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M11" s="2">
         <v>-1</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O11" s="2">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A1:$XFD1">
       <formula1>"CS,S,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:XFD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A2:$XFD2">
       <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="$A3:$XFD3">
       <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -21,6 +21,23 @@
     <author>Administrator</author>
   </authors>
   <commentList>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">0普通
+1背包
+2物品
+3商店
+4商店物品
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H5" authorId="0">
       <text>
         <r>
@@ -39,8 +56,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-横向0
-纵向1</t>
+0横向
+1纵向</t>
         </r>
       </text>
     </comment>
@@ -200,9 +217,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -215,14 +232,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -230,7 +255,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,84 +293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,8 +308,54 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,9 +368,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,13 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,13 +420,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,61 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,13 +492,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,13 +534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,31 +558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,6 +605,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -599,6 +655,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,67 +697,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,10 +710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +722,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1216,7 +1233,7 @@
   <dimension ref="A1:XEZ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17992,7 +18009,7 @@
         <v>31</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
         <v>10001</v>
@@ -18030,7 +18047,7 @@
         <v>35</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
         <v>10003</v>
@@ -18068,7 +18085,7 @@
         <v>33</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2">
         <v>2</v>
@@ -18109,7 +18126,7 @@
         <v>39</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2">
         <v>10002</v>
@@ -18147,7 +18164,7 @@
         <v>40</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2">
         <v>10003</v>
@@ -18170,14 +18187,14 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="$A3:$XFD3">
+      <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A1:$XFD1">
       <formula1>"CS,S,C"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A2:$XFD2">
       <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="$A3:$XFD3">
-      <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18193,7 +18210,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="FRAME" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -353,9 +353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,8 +367,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,6 +396,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -408,7 +426,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +480,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,19 +516,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,24 +546,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -505,6 +553,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,61 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,10 +710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,16 +722,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,10 +743,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,28 +767,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -797,58 +797,58 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:XEZ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17947,16 +17947,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>30</v>
@@ -17994,16 +17994,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>31</v>
@@ -18032,16 +18032,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>35</v>
@@ -18070,16 +18070,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>33</v>
@@ -18111,16 +18111,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>39</v>
@@ -18149,16 +18149,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>40</v>
@@ -18187,14 +18187,14 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="$A3:$XFD3">
-      <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A1:$XFD1">
       <formula1>"CS,S,C"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A2:$XFD2">
       <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="$A3:$XFD3">
+      <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="FRAME" sheetId="1" r:id="rId1"/>
     <sheet name="类型说明" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="FRAMEWITHOPTIONS" sheetId="3" r:id="rId3"/>
+    <sheet name="OPTIONS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -38,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>CS</t>
   </si>
@@ -107,6 +108,9 @@
     <t>height</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -117,6 +121,9 @@
   </si>
   <si>
     <t>option</t>
+  </si>
+  <si>
+    <t>notify</t>
   </si>
   <si>
     <t>frame_id</t>
@@ -140,6 +147,9 @@
     <t>高度</t>
   </si>
   <si>
+    <t>名称</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -155,55 +165,118 @@
     <t>选项描述</t>
   </si>
   <si>
+    <t>通知处理</t>
+  </si>
+  <si>
     <t>对应的框id</t>
+  </si>
+  <si>
+    <t>主界面</t>
   </si>
   <si>
     <t>欢迎来到Lost世界！</t>
   </si>
   <si>
-    <t>show bag</t>
+    <t>小镇</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>冒险</t>
+  </si>
+  <si>
+    <t>成就</t>
+  </si>
+  <si>
+    <t>Lost小镇</t>
+  </si>
+  <si>
+    <t>家</t>
   </si>
   <si>
     <t>商店</t>
   </si>
   <si>
-    <t>show hello</t>
+    <t>农事</t>
   </si>
   <si>
-    <t>错误bag</t>
+    <t>工业</t>
   </si>
   <si>
-    <t>欢迎光临！请随便挑选</t>
+    <t>最放松的地方</t>
+  </si>
+  <si>
+    <t>卧室</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t>美美的睡一觉</t>
+  </si>
+  <si>
+    <t>睡觉</t>
+  </si>
+  <si>
+    <t>可以做好吃的</t>
+  </si>
+  <si>
+    <t>烹饪</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>延长保质期</t>
+  </si>
+  <si>
+    <t>没东西</t>
+  </si>
+  <si>
+    <t>诚信交易</t>
   </si>
   <si>
     <t>没有商品</t>
   </si>
   <si>
-    <t>OK</t>
+    <t>种瓜得瓜</t>
   </si>
   <si>
-    <t>不可以</t>
+    <t>未开发</t>
   </si>
   <si>
-    <t>bag</t>
+    <t>乘热打铁</t>
   </si>
   <si>
-    <t>这是一个超级牛逼的武器</t>
+    <t>查看能力</t>
   </si>
   <si>
-    <t>买</t>
+    <t>背包</t>
   </si>
   <si>
-    <t>不买</t>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>旅行者背包</t>
+  </si>
+  <si>
+    <t>技能&amp;技能加点</t>
+  </si>
+  <si>
+    <t>探索外面的世界</t>
+  </si>
+  <si>
+    <t>辉煌成就</t>
   </si>
   <si>
     <t>说明</t>
   </si>
   <si>
     <t>普通</t>
-  </si>
-  <si>
-    <t>背包</t>
   </si>
   <si>
     <t>物品</t>
@@ -852,7 +925,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,6 +949,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1230,34 +1309,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XEZ11"/>
+  <dimension ref="A1:XFD103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="6" width="9.55833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.8833333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.5583333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.6666666666667" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.55833333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.775" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.55833333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.775" style="2" customWidth="1"/>
+    <col min="1" max="6" width="9.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.55833333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.55833333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="2" customWidth="1"/>
+    <col min="13" max="14" width="14.775" style="2" customWidth="1"/>
     <col min="15" max="15" width="9.55833333333333" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.55833333333333" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13.4416666666667" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.55833333333333" style="2" customWidth="1"/>
-    <col min="20" max="20" width="12.8833333333333" style="2" customWidth="1"/>
+    <col min="16" max="17" width="12.775" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.55833333333333" style="2" customWidth="1"/>
+    <col min="19" max="20" width="14" style="2" customWidth="1"/>
     <col min="21" max="21" width="9.55833333333333" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="2"/>
+    <col min="22" max="23" width="13.4416666666667" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9.55833333333333" style="2" customWidth="1"/>
+    <col min="25" max="26" width="12.8833333333333" style="2" customWidth="1"/>
+    <col min="27" max="27" width="9.55833333333333" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16380">
+    <row r="1" spans="1:16384">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1276,10 +1356,10 @@
       <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -1321,12 +1401,24 @@
       <c r="U1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
+      <c r="V1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
@@ -17680,8 +17772,12 @@
       <c r="XEX1" s="4"/>
       <c r="XEY1" s="4"/>
       <c r="XEZ1" s="4"/>
+      <c r="XFA1" s="4"/>
+      <c r="XFB1" s="4"/>
+      <c r="XFC1" s="4"/>
+      <c r="XFD1" s="4"/>
     </row>
-    <row r="2" ht="27" spans="1:22">
+    <row r="2" ht="27" spans="1:28">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -17700,29 +17796,29 @@
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>1</v>
@@ -17731,7 +17827,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>1</v>
@@ -17740,14 +17836,32 @@
         <v>1</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="6"/>
+      <c r="V2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:28">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -17766,29 +17880,29 @@
       <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>5</v>
+      <c r="H3" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="8">
-        <v>2</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="10">
+        <v>5</v>
+      </c>
+      <c r="L3" s="10">
+        <v>3</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>5</v>
@@ -17800,20 +17914,38 @@
         <v>5</v>
       </c>
       <c r="R3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="6"/>
+      <c r="V3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:28">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -17838,108 +17970,144 @@
       <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
+      <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="10" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="V4" s="7"/>
+      <c r="M4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="7"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="27" spans="1:21">
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:24">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -17958,40 +18126,50 @@
       <c r="F6" s="2">
         <v>15</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="2">
-        <v>3</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="K6" s="2">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2">
-        <v>2</v>
+        <v>1000000</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="R6" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" s="2">
+        <v>4000000</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:24">
       <c r="A7" s="2">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>16</v>
@@ -18006,30 +18184,48 @@
         <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="2">
+        <v>36</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="2">
-        <v>10001</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="2">
-        <v>-1</v>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1100000</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1300000</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1400000</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:18">
       <c r="A8" s="2">
-        <v>2</v>
+        <v>1100000</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
         <v>16</v>
@@ -18043,28 +18239,34 @@
       <c r="F8" s="2">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="2">
-        <v>10003</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="2">
-        <v>-1</v>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1110000</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1120000</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>3</v>
+        <v>1110000</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -18082,33 +18284,33 @@
         <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="2">
+        <v>46</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="2">
-        <v>2</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="K9" s="2">
         <v>1</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>38</v>
+      <c r="M9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1111000</v>
       </c>
       <c r="O9" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:18">
       <c r="A10" s="2">
-        <v>4</v>
+        <v>1120000</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
         <v>16</v>
@@ -18122,31 +18324,41 @@
       <c r="F10" s="2">
         <v>15</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="2">
-        <v>10002</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1122000</v>
+      </c>
+      <c r="O10" s="2">
         <v>-1</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2">
+        <v>1121000</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>5</v>
+        <v>1121000</v>
       </c>
       <c r="B11" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
         <v>16</v>
@@ -18160,40 +18372,638 @@
       <c r="F11" s="2">
         <v>15</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="2">
-        <v>10003</v>
-      </c>
       <c r="J11" s="2">
-        <v>2</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>42</v>
+        <v>1121000</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="O11" s="2">
         <v>-1</v>
       </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2">
+        <v>1300000</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="2">
+        <v>1400000</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>40</v>
+      </c>
+      <c r="F15" s="2">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2100000</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R15" s="2">
+        <v>2200000</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="2">
+        <v>2100000</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2100000</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="2">
+        <v>2200000</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2">
+        <v>2300000</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>40</v>
+      </c>
+      <c r="F18" s="2">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>40</v>
+      </c>
+      <c r="F19" s="2">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>40</v>
+      </c>
+      <c r="F20" s="2">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="8:8">
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="8:8">
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="8:8">
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="8:8">
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="8:8">
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="8:8">
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="8:8">
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="8:8">
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="8:8">
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="8:8">
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="8:8">
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="8:8">
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="8:8">
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="8:8">
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="8:8">
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="8:8">
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="8:8">
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="8:8">
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="8:8">
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="8:8">
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="8:8">
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="8:8">
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="8:8">
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="8:8">
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="8:8">
+      <c r="H75" s="8"/>
+    </row>
+    <row r="76" spans="8:8">
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="8:8">
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" spans="8:8">
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="8:8">
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" spans="8:8">
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="8:8">
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="8:8">
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="8:8">
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="8:8">
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="8:8">
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="8:8">
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="8:8">
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="8:8">
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="8:8">
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="8:8">
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="8:8">
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" spans="8:8">
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="8:8">
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="8:8">
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="8:8">
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="8:8">
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="8:8">
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" spans="8:8">
+      <c r="H98" s="8"/>
+    </row>
+    <row r="99" spans="8:8">
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="8:8">
+      <c r="H100" s="8"/>
+    </row>
+    <row r="101" spans="8:8">
+      <c r="H101" s="8"/>
+    </row>
+    <row r="102" spans="8:8">
+      <c r="H102" s="8"/>
+    </row>
+    <row r="103" spans="8:8">
+      <c r="H103" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A1:$XFD1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:F1 G1 H1:M1 N1 O1:P1 Q1 R1:S1 T1 U1:V1 W1 X1:Y1 Z1 AA1:XFD1">
       <formula1>"CS,S,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A2:$XFD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:F2 G2 H2:M2 N2 O2:P2 Q2 R2:S2 T2 U2:V2 W2 X2:Y2 Z2 AA2:XFD2">
       <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="$A3:$XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:F3 G3 H3:M3 N3 O3:P3 Q3 R3:S3 T3 U3:V3 W3 X3:Y3 Z3 AA3:XFD3">
       <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18217,10 +19027,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -18228,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -18236,7 +19046,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -18244,7 +19054,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -18252,7 +19062,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -18260,7 +19070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -18356,7 +19166,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18365,4 +19175,20 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>CS</t>
   </si>
@@ -240,6 +240,15 @@
     <t>没有商品</t>
   </si>
   <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>商品描述</t>
+  </si>
+  <si>
+    <t>买</t>
+  </si>
+  <si>
     <t>种瓜得瓜</t>
   </si>
   <si>
@@ -264,6 +273,15 @@
     <t>旅行者背包</t>
   </si>
   <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>物品描述</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
     <t>技能&amp;技能加点</t>
   </si>
   <si>
@@ -279,9 +297,6 @@
     <t>普通</t>
   </si>
   <si>
-    <t>物品</t>
-  </si>
-  <si>
     <t>商店物品</t>
   </si>
 </sst>
@@ -290,10 +305,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -426,8 +441,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,9 +456,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,24 +484,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -494,6 +491,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,67 +544,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,30 +580,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -626,6 +587,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,13 +634,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,10 +798,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,16 +810,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,10 +831,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -840,28 +855,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -870,58 +885,58 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1309,10 +1324,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD103"/>
+  <dimension ref="A1:XFD105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18141,7 +18156,6 @@
       <c r="M6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="2"/>
       <c r="O6" s="2">
         <v>1000000</v>
       </c>
@@ -18348,7 +18362,6 @@
       <c r="P10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q10" s="2"/>
       <c r="R10" s="2">
         <v>1121000</v>
       </c>
@@ -18437,7 +18450,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>1300000</v>
+        <v>1210000</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -18455,19 +18468,25 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
+      <c r="J13" s="2">
+        <v>1210000</v>
+      </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1210000</v>
       </c>
       <c r="O13" s="2">
         <v>-1</v>
@@ -18475,7 +18494,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>1400000</v>
+        <v>1300000</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -18493,10 +18512,10 @@
         <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -18505,15 +18524,15 @@
         <v>1</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O14" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>2000000</v>
+        <v>1400000</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -18531,40 +18550,27 @@
         <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="K15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O15" s="2">
-        <v>2100000</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R15" s="2">
-        <v>2200000</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2">
-        <v>2300000</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:21">
       <c r="A16" s="2">
-        <v>2100000</v>
+        <v>2000000</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -18582,30 +18588,39 @@
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
+        <v>3</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="2">
         <v>2100000</v>
       </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O16" s="2">
-        <v>-1</v>
+      <c r="P16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R16" s="2">
+        <v>2200000</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U16" s="2">
+        <v>2300000</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>2200000</v>
+        <v>2100000</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -18623,20 +18638,22 @@
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <v>2100000</v>
+      </c>
       <c r="K17" s="2">
         <v>1</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O17" s="2">
         <v>-1</v>
@@ -18644,7 +18661,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>2300000</v>
+        <v>2110000</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -18662,28 +18679,31 @@
         <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2">
+        <v>2110000</v>
+      </c>
       <c r="K18" s="2">
         <v>1</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2">
         <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>3000000</v>
+        <v>2200000</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -18701,20 +18721,19 @@
         <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
-      <c r="J19" s="2"/>
       <c r="K19" s="2">
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O19" s="2">
         <v>-1</v>
@@ -18722,7 +18741,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>4000000</v>
+        <v>2300000</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -18740,10 +18759,10 @@
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -18752,17 +18771,87 @@
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O20" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="8:8">
-      <c r="H25" s="8"/>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O21" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="26" spans="8:8">
-      <c r="H26" s="8"/>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>40</v>
+      </c>
+      <c r="F22" s="2">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" s="8"/>
@@ -18995,6 +19084,12 @@
     <row r="103" spans="8:8">
       <c r="H103" s="8"/>
     </row>
+    <row r="104" spans="8:8">
+      <c r="H104" s="8"/>
+    </row>
+    <row r="105" spans="8:8">
+      <c r="H105" s="8"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:F1 G1 H1:M1 N1 O1:P1 Q1 R1:S1 T1 U1:V1 W1 X1:Y1 Z1 AA1:XFD1">
@@ -19030,7 +19125,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -19038,7 +19133,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -19046,7 +19141,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -19054,7 +19149,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -19070,7 +19165,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:1">

--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -305,8 +305,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -320,7 +320,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,7 +328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,6 +344,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,14 +372,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -381,15 +380,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,9 +394,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,23 +416,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,15 +448,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,13 +484,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,61 +538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,13 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,13 +586,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,13 +616,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,31 +652,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,60 +693,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -762,7 +708,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,8 +731,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,10 +798,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,34 +810,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,97 +846,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:XFD105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18696,7 +18696,6 @@
       <c r="M18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N18" s="2"/>
       <c r="O18" s="2">
         <v>-1</v>
       </c>
@@ -19095,11 +19094,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:F1 G1 H1:M1 N1 O1:P1 Q1 R1:S1 T1 U1:V1 W1 X1:Y1 Z1 AA1:XFD1">
       <formula1>"CS,S,C"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:F3 G3 H3:M3 N3 O3:P3 Q3 R3:S3 T3 U3:V3 W3 X3:Y3 Z3 AA3:XFD3">
+      <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:F2 G2 H2:M2 N2 O2:P2 Q2 R2:S2 T2 U2:V2 W2 X2:Y2 Z2 AA2:XFD2">
       <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:F3 G3 H3:M3 N3 O3:P3 Q3 R3:S3 T3 U3:V3 W3 X3:Y3 Z3 AA3:XFD3">
-      <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="FRAME" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>CS</t>
   </si>
@@ -249,6 +249,9 @@
     <t>买</t>
   </si>
   <si>
+    <t>卖</t>
+  </si>
+  <si>
     <t>种瓜得瓜</t>
   </si>
   <si>
@@ -286,6 +289,30 @@
   </si>
   <si>
     <t>探索外面的世界</t>
+  </si>
+  <si>
+    <t>树林</t>
+  </si>
+  <si>
+    <t>茂盛的树林里有凶横的野兽</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>狩猎</t>
+  </si>
+  <si>
+    <t>搜不到任何东西了~</t>
+  </si>
+  <si>
+    <t>凶猛的野兽</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>逃跑</t>
   </si>
   <si>
     <t>辉煌成就</t>
@@ -326,22 +353,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -356,11 +367,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,51 +390,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -432,9 +398,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,8 +421,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,6 +511,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -491,6 +626,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,163 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,22 +720,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,6 +761,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,45 +817,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -798,10 +825,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,133 +837,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1324,10 +1351,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD105"/>
+  <dimension ref="A1:XFD108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18313,10 +18340,10 @@
         <v>49</v>
       </c>
       <c r="N9" s="2">
-        <v>1111000</v>
+        <v>1111001</v>
       </c>
       <c r="O9" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -18354,7 +18381,7 @@
         <v>51</v>
       </c>
       <c r="N10" s="2">
-        <v>1122000</v>
+        <v>1122001</v>
       </c>
       <c r="O10" s="2">
         <v>-1</v>
@@ -18407,7 +18434,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" ht="14" customHeight="1" spans="1:15">
       <c r="A12" s="2">
         <v>1200000</v>
       </c>
@@ -18448,7 +18475,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:18">
       <c r="A13" s="2">
         <v>1210000</v>
       </c>
@@ -18480,16 +18507,25 @@
         <v>1210000</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N13" s="2">
+        <v>1210001</v>
+      </c>
+      <c r="O13" s="2">
         <v>1210000</v>
       </c>
-      <c r="O13" s="2">
-        <v>-1</v>
+      <c r="P13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1210002</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1210000</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -18515,7 +18551,7 @@
         <v>43</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -18524,7 +18560,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O14" s="2">
         <v>-1</v>
@@ -18553,7 +18589,7 @@
         <v>44</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -18562,7 +18598,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O15" s="2">
         <v>-1</v>
@@ -18591,7 +18627,7 @@
         <v>37</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -18600,19 +18636,19 @@
         <v>3</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O16" s="2">
         <v>2100000</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R16" s="2">
         <v>2200000</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U16" s="2">
         <v>2300000</v>
@@ -18638,10 +18674,10 @@
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -18679,10 +18715,10 @@
         <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -18694,10 +18730,10 @@
         <v>1</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O18" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -18720,10 +18756,10 @@
         <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -18732,7 +18768,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="2">
         <v>-1</v>
@@ -18758,10 +18794,10 @@
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -18770,7 +18806,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="2">
         <v>-1</v>
@@ -18799,7 +18835,7 @@
         <v>38</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -18808,15 +18844,15 @@
         <v>1</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="O21" s="2">
-        <v>-1</v>
+        <v>3100000</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:18">
       <c r="A22" s="2">
-        <v>4000000</v>
+        <v>3100000</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -18834,32 +18870,160 @@
         <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="K22" s="2">
+        <v>2</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2">
+        <v>3110000</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2">
+        <v>3120000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2">
+        <v>3110000</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>40</v>
+      </c>
+      <c r="F23" s="2">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="2">
         <v>1</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O22" s="2">
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="2">
+        <v>3120000</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>40</v>
+      </c>
+      <c r="F24" s="2">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3120000</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24" s="2">
+        <v>3110001</v>
+      </c>
+      <c r="O24" s="2">
+        <v>3120000</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>3110002</v>
+      </c>
+      <c r="R24" s="2">
+        <v>3120000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O25" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="8:8">
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="8:8">
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="8:8">
-      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" s="8"/>
@@ -19089,16 +19253,25 @@
     <row r="105" spans="8:8">
       <c r="H105" s="8"/>
     </row>
+    <row r="106" spans="8:8">
+      <c r="H106" s="8"/>
+    </row>
+    <row r="107" spans="8:8">
+      <c r="H107" s="8"/>
+    </row>
+    <row r="108" spans="8:8">
+      <c r="H108" s="8"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:F2 G2 H2:M2 N2 O2:P2 Q2 R2:S2 T2 U2:V2 W2 X2:Y2 Z2 AA2:XFD2">
+      <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:F1 G1 H1:M1 N1 O1:P1 Q1 R1:S1 T1 U1:V1 W1 X1:Y1 Z1 AA1:XFD1">
       <formula1>"CS,S,C"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:F3 G3 H3:M3 N3 O3:P3 Q3 R3:S3 T3 U3:V3 W3 X3:Y3 Z3 AA3:XFD3">
       <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:F2 G2 H2:M2 N2 O2:P2 Q2 R2:S2 T2 U2:V2 W2 X2:Y2 Z2 AA2:XFD2">
-      <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19124,7 +19297,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -19132,7 +19305,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -19140,7 +19313,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -19148,7 +19321,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -19164,7 +19337,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1">

--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="27840" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="FRAME" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>CS</t>
   </si>
@@ -210,6 +210,9 @@
     <t>卧室</t>
   </si>
   <si>
+    <t>仓库</t>
+  </si>
+  <si>
     <t>厨房</t>
   </si>
   <si>
@@ -217,6 +220,36 @@
   </si>
   <si>
     <t>睡觉</t>
+  </si>
+  <si>
+    <t>可以保存物品</t>
+  </si>
+  <si>
+    <t>取出物品</t>
+  </si>
+  <si>
+    <t>存放物品</t>
+  </si>
+  <si>
+    <t>仓库物品列表</t>
+  </si>
+  <si>
+    <t>无物品</t>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>物品描述</t>
+  </si>
+  <si>
+    <t>取出</t>
+  </si>
+  <si>
+    <t>背包物品列表</t>
+  </si>
+  <si>
+    <t>存放</t>
   </si>
   <si>
     <t>可以做好吃的</t>
@@ -274,12 +307,6 @@
   </si>
   <si>
     <t>旅行者背包</t>
-  </si>
-  <si>
-    <t>物品</t>
-  </si>
-  <si>
-    <t>物品描述</t>
   </si>
   <si>
     <t>返回</t>
@@ -1351,10 +1378,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD108"/>
+  <dimension ref="A1:XFD113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18261,7 +18288,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:21">
       <c r="A8" s="2">
         <v>1100000</v>
       </c>
@@ -18290,7 +18317,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>46</v>
@@ -18302,6 +18329,12 @@
         <v>47</v>
       </c>
       <c r="R8" s="2">
+        <v>1120000</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U8" s="2">
         <v>1120000</v>
       </c>
     </row>
@@ -18328,7 +18361,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -18337,7 +18370,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N9" s="2">
         <v>1111001</v>
@@ -18369,7 +18402,7 @@
         <v>47</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -18378,19 +18411,16 @@
         <v>2</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" s="2">
-        <v>1122001</v>
+        <v>52</v>
       </c>
       <c r="O10" s="2">
-        <v>-1</v>
+        <v>1121000</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R10" s="2">
-        <v>1121000</v>
+        <v>1122000</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -18416,7 +18446,7 @@
         <v>52</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -18428,15 +18458,16 @@
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
-    <row r="12" ht="14" customHeight="1" spans="1:15">
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>1200000</v>
+        <v>1121100</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -18454,30 +18485,33 @@
         <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" s="2">
-        <v>1200000</v>
+        <v>1121100</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1121101</v>
       </c>
       <c r="O12" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>1210000</v>
+        <v>1122000</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -18495,42 +18529,33 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" s="2">
-        <v>1210000</v>
+        <v>1122000</v>
       </c>
       <c r="K13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N13" s="2">
-        <v>1210001</v>
+        <v>1122000</v>
       </c>
       <c r="O13" s="2">
-        <v>1210000</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1210002</v>
-      </c>
-      <c r="R13" s="2">
-        <v>1210000</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>1300000</v>
+        <v>1122100</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -18548,27 +18573,33 @@
         <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
+      <c r="J14" s="2">
+        <v>1122100</v>
+      </c>
       <c r="K14" s="2">
         <v>1</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1122101</v>
       </c>
       <c r="O14" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:18">
       <c r="A15" s="2">
-        <v>1400000</v>
+        <v>1130000</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -18586,27 +18617,36 @@
         <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="N15" s="2">
+        <v>1130001</v>
+      </c>
       <c r="O15" s="2">
         <v>-1</v>
       </c>
+      <c r="P15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1131000</v>
+      </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>2000000</v>
+        <v>1131000</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -18624,7 +18664,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>64</v>
@@ -18632,31 +18672,22 @@
       <c r="I16" s="2">
         <v>1</v>
       </c>
+      <c r="J16" s="2">
+        <v>1131000</v>
+      </c>
       <c r="K16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="O16" s="2">
-        <v>2100000</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R16" s="2">
-        <v>2200000</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U16" s="2">
-        <v>2300000</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" ht="14" customHeight="1" spans="1:15">
       <c r="A17" s="2">
-        <v>2100000</v>
+        <v>1200000</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -18674,30 +18705,30 @@
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" s="2">
-        <v>2100000</v>
+        <v>1200000</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="O17" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:18">
       <c r="A18" s="2">
-        <v>2110000</v>
+        <v>1210000</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -18715,30 +18746,42 @@
         <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" s="2">
-        <v>2110000</v>
+        <v>1210000</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1210001</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1210000</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O18" s="2">
-        <v>-2</v>
+      <c r="Q18" s="2">
+        <v>1210002</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1210000</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>2200000</v>
+        <v>1300000</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -18756,9 +18799,9 @@
         <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>72</v>
       </c>
       <c r="I19" s="2">
@@ -18768,7 +18811,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="O19" s="2">
         <v>-1</v>
@@ -18776,7 +18819,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>2300000</v>
+        <v>1400000</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -18794,10 +18837,10 @@
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -18806,15 +18849,15 @@
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="O20" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:21">
       <c r="A21" s="2">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -18832,27 +18875,39 @@
         <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O21" s="2">
-        <v>3100000</v>
+        <v>2100000</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R21" s="2">
+        <v>2200000</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U21" s="2">
+        <v>2300000</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>3100000</v>
+        <v>2100000</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -18870,35 +18925,30 @@
         <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
+      <c r="J22" s="2">
+        <v>2100000</v>
+      </c>
       <c r="K22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>65</v>
+      </c>
       <c r="O22" s="2">
-        <v>3110000</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2">
-        <v>3120000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>3110000</v>
+        <v>2110000</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -18916,27 +18966,30 @@
         <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
+      <c r="J23" s="2">
+        <v>2110000</v>
+      </c>
       <c r="K23" s="2">
         <v>1</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O23" s="2">
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>3120000</v>
+        <v>2200000</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -18956,40 +19009,25 @@
       <c r="G24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>79</v>
+      <c r="H24" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
-      <c r="J24" s="2">
-        <v>3120000</v>
-      </c>
       <c r="K24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N24" s="2">
-        <v>3110001</v>
+        <v>73</v>
       </c>
       <c r="O24" s="2">
-        <v>3120000</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>3110002</v>
-      </c>
-      <c r="R24" s="2">
-        <v>3120000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>4000000</v>
+        <v>2300000</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -19007,10 +19045,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
@@ -19019,26 +19057,224 @@
         <v>1</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="O25" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="8:8">
-      <c r="H30" s="8"/>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>40</v>
+      </c>
+      <c r="F26" s="2">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O26" s="2">
+        <v>3100000</v>
+      </c>
     </row>
-    <row r="31" spans="8:8">
-      <c r="H31" s="8"/>
+    <row r="27" spans="1:18">
+      <c r="A27" s="2">
+        <v>3100000</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>40</v>
+      </c>
+      <c r="F27" s="2">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2">
+        <v>3110000</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2">
+        <v>3120000</v>
+      </c>
     </row>
-    <row r="32" spans="8:8">
-      <c r="H32" s="8"/>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2">
+        <v>3110000</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>40</v>
+      </c>
+      <c r="F28" s="2">
+        <v>15</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" s="2">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="33" spans="8:8">
-      <c r="H33" s="8"/>
+    <row r="29" spans="1:18">
+      <c r="A29" s="2">
+        <v>3120000</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>40</v>
+      </c>
+      <c r="F29" s="2">
+        <v>15</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>3120000</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N29" s="2">
+        <v>3110001</v>
+      </c>
+      <c r="O29" s="2">
+        <v>3120000</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>3110002</v>
+      </c>
+      <c r="R29" s="2">
+        <v>3120000</v>
+      </c>
     </row>
-    <row r="34" spans="8:8">
-      <c r="H34" s="8"/>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>40</v>
+      </c>
+      <c r="F30" s="2">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O30" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" s="8"/>
@@ -19262,6 +19498,21 @@
     <row r="108" spans="8:8">
       <c r="H108" s="8"/>
     </row>
+    <row r="109" spans="8:8">
+      <c r="H109" s="8"/>
+    </row>
+    <row r="110" spans="8:8">
+      <c r="H110" s="8"/>
+    </row>
+    <row r="111" spans="8:8">
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="8:8">
+      <c r="H112" s="8"/>
+    </row>
+    <row r="113" spans="8:8">
+      <c r="H113" s="8"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:F2 G2 H2:M2 N2 O2:P2 Q2 R2:S2 T2 U2:V2 W2 X2:Y2 Z2 AA2:XFD2">
@@ -19297,7 +19548,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -19305,7 +19556,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -19313,7 +19564,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -19321,7 +19572,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -19337,7 +19588,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:1">

--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -359,10 +359,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -374,44 +374,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,24 +388,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,6 +411,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -465,7 +428,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,10 +466,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,16 +502,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,37 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,19 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,7 +568,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,7 +700,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,91 +718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,6 +747,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -762,17 +801,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,50 +844,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -852,10 +852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,133 +864,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:XFD113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18460,7 +18460,6 @@
       <c r="M11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="2"/>
       <c r="O11" s="2">
         <v>-2</v>
       </c>
@@ -19135,14 +19134,12 @@
       <c r="M27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N27" s="2"/>
       <c r="O27" s="2">
         <v>3110000</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Q27" s="2"/>
       <c r="R27" s="2">
         <v>3120000</v>
       </c>
@@ -19684,7 +19681,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27840" windowHeight="12060"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="FRAME" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="FRAMEWITHOPTIONS" sheetId="3" r:id="rId3"/>
     <sheet name="OPTIONS" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -359,38 +359,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -403,9 +380,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,14 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -435,31 +403,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,22 +439,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,7 +511,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,37 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,61 +550,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,7 +574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,13 +610,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,31 +718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,17 +747,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,21 +767,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,17 +788,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -822,16 +796,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,6 +833,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -852,10 +852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,133 +864,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:XFD113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19090,6 +19090,9 @@
       <c r="I26" s="2">
         <v>1</v>
       </c>
+      <c r="J26" s="2">
+        <v>3000000</v>
+      </c>
       <c r="K26" s="2">
         <v>1</v>
       </c>
@@ -19127,6 +19130,9 @@
       </c>
       <c r="I27" s="2">
         <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>3100000</v>
       </c>
       <c r="K27" s="2">
         <v>2</v>
@@ -19512,14 +19518,14 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:F2 G2 H2:M2 N2 O2:P2 Q2 R2:S2 T2 U2:V2 W2 X2:Y2 Z2 AA2:XFD2">
-      <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:F1 G1 H1:M1 N1 O1:P1 Q1 R1:S1 T1 U1:V1 W1 X1:Y1 Z1 AA1:XFD1">
       <formula1>"CS,S,C"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:F3 G3 H3:M3 N3 O3:P3 Q3 R3:S3 T3 U3:V3 W3 X3:Y3 Z3 AA3:XFD3">
       <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:F2 G2 H2:M2 N2 O2:P2 Q2 R2:S2 T2 U2:V2 W2 X2:Y2 Z2 AA2:XFD2">
+      <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>CS</t>
   </si>
@@ -258,15 +258,6 @@
     <t>烹饪</t>
   </si>
   <si>
-    <t>冰箱</t>
-  </si>
-  <si>
-    <t>延长保质期</t>
-  </si>
-  <si>
-    <t>没东西</t>
-  </si>
-  <si>
     <t>诚信交易</t>
   </si>
   <si>
@@ -307,6 +298,9 @@
   </si>
   <si>
     <t>旅行者背包</t>
+  </si>
+  <si>
+    <t>没东西</t>
   </si>
   <si>
     <t>返回</t>
@@ -359,15 +353,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -381,7 +390,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,34 +431,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -434,6 +445,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,52 +489,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -512,6 +499,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,7 +532,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +604,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,19 +628,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,67 +670,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,67 +712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,21 +741,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -786,15 +765,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -806,6 +776,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,20 +821,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,10 +846,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,133 +858,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1378,10 +1372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD113"/>
+  <dimension ref="A1:XFD112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18335,7 +18329,7 @@
         <v>48</v>
       </c>
       <c r="U8" s="2">
-        <v>1120000</v>
+        <v>1130000</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -18545,9 +18539,7 @@
       <c r="M13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N13" s="2">
-        <v>1122000</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2">
         <v>-2</v>
       </c>
@@ -18596,7 +18588,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:15">
       <c r="A15" s="2">
         <v>1130000</v>
       </c>
@@ -18625,7 +18617,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>62</v>
@@ -18636,16 +18628,10 @@
       <c r="O15" s="2">
         <v>-1</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R15" s="2">
-        <v>1131000</v>
-      </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" ht="14" customHeight="1" spans="1:15">
       <c r="A16" s="2">
-        <v>1131000</v>
+        <v>1200000</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -18663,30 +18649,30 @@
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" s="2">
-        <v>1131000</v>
+        <v>1200000</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O16" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" ht="14" customHeight="1" spans="1:15">
+    <row r="17" spans="1:18">
       <c r="A17" s="2">
-        <v>1200000</v>
+        <v>1210000</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -18704,7 +18690,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>66</v>
@@ -18713,21 +18699,33 @@
         <v>1</v>
       </c>
       <c r="J17" s="2">
-        <v>1200000</v>
+        <v>1210000</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="N17" s="2">
+        <v>1210001</v>
+      </c>
       <c r="O17" s="2">
-        <v>-1</v>
+        <v>1210000</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1210002</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1210000</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>1210000</v>
+        <v>1300000</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -18745,7 +18743,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>69</v>
@@ -18753,34 +18751,19 @@
       <c r="I18" s="2">
         <v>1</v>
       </c>
-      <c r="J18" s="2">
-        <v>1210000</v>
-      </c>
       <c r="K18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N18" s="2">
-        <v>1210001</v>
-      </c>
       <c r="O18" s="2">
-        <v>1210000</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1210002</v>
-      </c>
-      <c r="R18" s="2">
-        <v>1210000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>1300000</v>
+        <v>1400000</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -18798,10 +18781,10 @@
         <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>72</v>
+        <v>44</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -18810,15 +18793,15 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O19" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:21">
       <c r="A20" s="2">
-        <v>1400000</v>
+        <v>2000000</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -18836,27 +18819,39 @@
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>74</v>
+        <v>37</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>73</v>
       </c>
       <c r="O20" s="2">
-        <v>-1</v>
+        <v>2100000</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R20" s="2">
+        <v>2200000</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U20" s="2">
+        <v>2300000</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>2000000</v>
+        <v>2100000</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -18874,39 +18869,30 @@
         <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
+      <c r="J21" s="2">
+        <v>2100000</v>
+      </c>
       <c r="K21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O21" s="2">
-        <v>2100000</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R21" s="2">
-        <v>2200000</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U21" s="2">
-        <v>2300000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>2100000</v>
+        <v>2110000</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -18924,30 +18910,30 @@
         <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" s="2">
-        <v>2100000</v>
+        <v>2110000</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="O22" s="2">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>2110000</v>
+        <v>2200000</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -18965,30 +18951,27 @@
         <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
-      <c r="J23" s="2">
-        <v>2110000</v>
-      </c>
       <c r="K23" s="2">
         <v>1</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O23" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>2200000</v>
+        <v>2300000</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -19006,10 +18989,10 @@
         <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
@@ -19018,7 +19001,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O24" s="2">
         <v>-1</v>
@@ -19026,7 +19009,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>2300000</v>
+        <v>3000000</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -19044,27 +19027,30 @@
         <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
+      <c r="J25" s="2">
+        <v>3000000</v>
+      </c>
       <c r="K25" s="2">
         <v>1</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="O25" s="2">
-        <v>-1</v>
+        <v>3100000</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:18">
       <c r="A26" s="2">
-        <v>3000000</v>
+        <v>3100000</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -19082,7 +19068,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>82</v>
@@ -19091,21 +19077,27 @@
         <v>1</v>
       </c>
       <c r="J26" s="2">
-        <v>3000000</v>
+        <v>3100000</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>83</v>
       </c>
       <c r="O26" s="2">
-        <v>3100000</v>
+        <v>3110000</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R26" s="2">
+        <v>3120000</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>3100000</v>
+        <v>3110000</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -19126,33 +19118,24 @@
         <v>83</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
-      <c r="J27" s="2">
-        <v>3100000</v>
-      </c>
       <c r="K27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O27" s="2">
-        <v>3110000</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R27" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="2">
         <v>3120000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="2">
-        <v>3110000</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -19170,27 +19153,42 @@
         <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
+      <c r="J28" s="2">
+        <v>3120000</v>
+      </c>
       <c r="K28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="N28" s="2">
+        <v>3110001</v>
       </c>
       <c r="O28" s="2">
-        <v>-2</v>
+        <v>3120000</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>3110002</v>
+      </c>
+      <c r="R28" s="2">
+        <v>3120000</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>3120000</v>
+        <v>4000000</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -19208,76 +19206,26 @@
         <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
-      <c r="J29" s="2">
-        <v>3120000</v>
-      </c>
       <c r="K29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N29" s="2">
-        <v>3110001</v>
+        <v>70</v>
       </c>
       <c r="O29" s="2">
-        <v>3120000</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>3110002</v>
-      </c>
-      <c r="R29" s="2">
-        <v>3120000</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
-        <v>16</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>40</v>
-      </c>
-      <c r="F30" s="2">
-        <v>15</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O30" s="2">
-        <v>-1</v>
-      </c>
+    <row r="34" spans="8:8">
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" s="8"/>
@@ -19513,19 +19461,16 @@
     <row r="112" spans="8:8">
       <c r="H112" s="8"/>
     </row>
-    <row r="113" spans="8:8">
-      <c r="H113" s="8"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:F1 G1 H1:M1 N1 O1:P1 Q1 R1:S1 T1 U1:V1 W1 X1:Y1 Z1 AA1:XFD1">
       <formula1>"CS,S,C"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:F2 G2 H2:M2 N2 O2:P2 Q2 R2:S2 T2 U2:V2 W2 X2:Y2 Z2 AA2:XFD2">
+      <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:F3 G3 H3:M3 N3 O3:P3 Q3 R3:S3 T3 U3:V3 W3 X3:Y3 Z3 AA3:XFD3">
       <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:F2 G2 H2:M2 N2 O2:P2 Q2 R2:S2 T2 U2:V2 W2 X2:Y2 Z2 AA2:XFD2">
-      <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19551,7 +19496,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -19559,7 +19504,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -19567,7 +19512,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -19591,7 +19536,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:1">

--- a/RPGGame/RPGGame/proto/xls/frame.xlsx
+++ b/RPGGame/RPGGame/proto/xls/frame.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>CS</t>
   </si>
@@ -31,7 +31,7 @@
     <t>repeated</t>
   </si>
   <si>
-    <t>required_struct</t>
+    <t>optional_struct</t>
   </si>
   <si>
     <t>int32</t>
@@ -52,6 +52,18 @@
     <t>Description</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
     <t>HandleID</t>
   </si>
   <si>
@@ -64,6 +76,9 @@
     <t>FrameID</t>
   </si>
   <si>
+    <t>Data</t>
+  </si>
+  <si>
     <t>编号</t>
   </si>
   <si>
@@ -76,6 +91,18 @@
     <t>描述</t>
   </si>
   <si>
+    <t>横坐标</t>
+  </si>
+  <si>
+    <t>纵坐标</t>
+  </si>
+  <si>
+    <t>宽度</t>
+  </si>
+  <si>
+    <t>高度</t>
+  </si>
+  <si>
     <t>对应的处理id</t>
   </si>
   <si>
@@ -91,6 +118,9 @@
     <t>对应的框id</t>
   </si>
   <si>
+    <t>选项数据</t>
+  </si>
+  <si>
     <t>主界面</t>
   </si>
   <si>
@@ -107,6 +137,12 @@
   </si>
   <si>
     <t>成就</t>
+  </si>
+  <si>
+    <t>属性框</t>
+  </si>
+  <si>
+    <t>信息框</t>
   </si>
   <si>
     <t>Lost小镇</t>
@@ -287,24 +323,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,21 +358,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,24 +375,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,10 +398,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,8 +413,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,24 +460,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,13 +482,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.149998474074526"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,180 +675,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,34 +704,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,37 +733,44 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,6 +789,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -772,10 +808,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,133 +820,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -936,25 +972,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1301,15 +1337,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="9.375" customWidth="1"/>
+    <col min="19" max="19" width="9.375" customWidth="1"/>
+    <col min="23" max="23" width="9.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1376,8 +1422,32 @@
       <c r="V1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="27" spans="1:22">
+      <c r="W1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:30">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1390,62 +1460,86 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>1</v>
+      <c r="J2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>2</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1461,41 +1555,41 @@
       <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7">
-        <v>3</v>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="10">
         <v>5</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="10">
+        <v>4</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="P3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>5</v>
@@ -1512,8 +1606,32 @@
       <c r="V3" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="27" spans="1:22">
+      <c r="W3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:30">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1526,274 +1644,342 @@
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="Q4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="7" t="s">
+      <c r="U4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4" s="7" t="s">
+      <c r="Y4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="10" t="s">
+      <c r="AC4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="8">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>40</v>
+      </c>
+      <c r="H6" s="8">
         <v>15</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:22">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2">
         <v>1000000</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2">
         <v>2000000</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2">
+      <c r="S6" s="2"/>
+      <c r="T6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2">
         <v>3000000</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2">
+      <c r="W6" s="2"/>
+      <c r="X6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2">
         <v>4000000</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="2">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8">
+        <v>15</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2">
-        <v>1100000</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2">
-        <v>1300000</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2">
-        <v>1400000</v>
-      </c>
+      <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-    </row>
-    <row r="8" ht="27" spans="1:22">
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="2">
-        <v>1100000</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8">
+        <v>56</v>
+      </c>
+      <c r="H8" s="8">
+        <v>5</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <v>1110000</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2">
-        <v>1120000</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2">
-        <v>1130000</v>
-      </c>
+      <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-    </row>
-    <row r="9" ht="27" spans="1:22">
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="2">
-        <v>1110000</v>
+        <v>1000000</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -1801,109 +1987,163 @@
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="D9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="8">
+        <v>16</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
         <v>40</v>
       </c>
-      <c r="I9" s="2">
-        <v>1111001</v>
-      </c>
+      <c r="H9" s="8">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2">
+        <v>1100000</v>
+      </c>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2">
+        <v>1200000</v>
+      </c>
       <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="T9" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" ht="27" spans="1:22">
+      <c r="V9" s="2">
+        <v>1300000</v>
+      </c>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2">
+        <v>1400000</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="2">
-        <v>1120000</v>
+        <v>1100000</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="8">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>40</v>
+      </c>
+      <c r="H10" s="8">
+        <v>15</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2">
-        <v>1121000</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2">
-        <v>1122000</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2">
+        <v>1110000</v>
+      </c>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="R10" s="2">
+        <v>1120000</v>
+      </c>
       <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="T10" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-    </row>
-    <row r="11" ht="27" spans="1:22">
+      <c r="V10" s="2">
+        <v>1130000</v>
+      </c>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="2">
-        <v>1121000</v>
+        <v>1110000</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1121000</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="8">
+        <v>16</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>40</v>
+      </c>
+      <c r="H11" s="8">
+        <v>15</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1111001</v>
+      </c>
+      <c r="N11" s="2">
         <v>-2</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1912,80 +2152,112 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" s="2">
-        <v>1121100</v>
+        <v>1120000</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1121100</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1121101</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>40</v>
+      </c>
+      <c r="H12" s="8">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="2">
+        <v>1121000</v>
+      </c>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2">
+        <v>1122000</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-    </row>
-    <row r="13" ht="27" spans="1:22">
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="2">
-        <v>1122000</v>
+        <v>1121000</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1122000</v>
-      </c>
-      <c r="F13" s="2">
+        <v>54</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="8">
+        <v>16</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>40</v>
+      </c>
+      <c r="H13" s="8">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1121000</v>
+      </c>
+      <c r="J13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
         <v>-2</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1994,40 +2266,56 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="2">
-        <v>1122100</v>
+        <v>1121100</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1122100</v>
-      </c>
-      <c r="F14" s="2">
+        <v>58</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="8">
+        <v>16</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>40</v>
+      </c>
+      <c r="H14" s="8">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1121100</v>
+      </c>
+      <c r="J14" s="2">
         <v>1</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1122101</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1121101</v>
+      </c>
+      <c r="N14" s="2">
         <v>-2</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -2036,38 +2324,54 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-    </row>
-    <row r="15" ht="27" spans="1:22">
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" s="2">
-        <v>1130000</v>
+        <v>1122000</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
+        <v>55</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="8">
+        <v>16</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>40</v>
+      </c>
+      <c r="H15" s="8">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1122000</v>
+      </c>
+      <c r="J15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1130001</v>
-      </c>
-      <c r="J15" s="2">
-        <v>-1</v>
-      </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="N15" s="2">
+        <v>-2</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -2076,38 +2380,56 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="2">
-        <v>1200000</v>
+        <v>1122100</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="F16" s="2">
+        <v>58</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="8">
+        <v>16</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>40</v>
+      </c>
+      <c r="H16" s="8">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1122100</v>
+      </c>
+      <c r="J16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2">
-        <v>-1</v>
-      </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1122101</v>
+      </c>
+      <c r="N16" s="2">
+        <v>-2</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -2116,46 +2438,54 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" s="2">
-        <v>1210000</v>
+        <v>1130000</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1210000</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1210001</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="8">
+        <v>16</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>40</v>
+      </c>
+      <c r="H17" s="8">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2">
-        <v>1210000</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1210002</v>
+        <v>1</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="M17" s="2">
-        <v>1210000</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>1130001</v>
+      </c>
+      <c r="N17" s="2">
+        <v>-1</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2164,36 +2494,54 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="2">
-        <v>1300000</v>
+        <v>1200000</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2">
+        <v>44</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="8">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>40</v>
+      </c>
+      <c r="H18" s="8">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="J18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2">
         <v>-1</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -2202,122 +2550,170 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" s="2">
-        <v>1400000</v>
+        <v>1210000</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="8">
+        <v>16</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>40</v>
+      </c>
+      <c r="H19" s="8">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1210000</v>
+      </c>
       <c r="J19" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1210001</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1210000</v>
+      </c>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="P19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1210002</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1210000</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" s="2">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="8">
+        <v>16</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>40</v>
+      </c>
+      <c r="H20" s="8">
+        <v>15</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2">
-        <v>2100000</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2">
-        <v>2200000</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2">
+        <v>-1</v>
       </c>
       <c r="O20" s="2"/>
-      <c r="P20" s="2">
-        <v>2300000</v>
-      </c>
+      <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-    </row>
-    <row r="21" ht="27" spans="1:22">
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="2">
-        <v>2100000</v>
+        <v>1400000</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2100000</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="8">
+        <v>16</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>40</v>
+      </c>
+      <c r="H21" s="8">
+        <v>15</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2">
         <v>-1</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2326,76 +2722,116 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="2">
-        <v>2110000</v>
+        <v>2000000</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2110000</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>68</v>
+        <v>37</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="8">
+        <v>16</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>40</v>
+      </c>
+      <c r="H22" s="8">
+        <v>15</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" s="2">
+        <v>2100000</v>
+      </c>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="P22" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="R22" s="2">
+        <v>2200000</v>
+      </c>
       <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="T22" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="V22" s="2">
+        <v>2300000</v>
+      </c>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" s="2">
-        <v>2200000</v>
+        <v>2100000</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2">
+        <v>75</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="8">
+        <v>16</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>40</v>
+      </c>
+      <c r="H23" s="8">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2100000</v>
+      </c>
+      <c r="J23" s="2">
         <v>1</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2">
         <v>-1</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2404,36 +2840,54 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" s="2">
-        <v>2300000</v>
+        <v>2110000</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2">
+        <v>58</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="8">
+        <v>16</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>40</v>
+      </c>
+      <c r="H24" s="8">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2110000</v>
+      </c>
+      <c r="J24" s="2">
         <v>1</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2">
-        <v>-1</v>
-      </c>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="N24" s="2">
+        <v>-2</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2442,38 +2896,52 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-    </row>
-    <row r="25" ht="27" spans="1:22">
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" s="2">
-        <v>3000000</v>
+        <v>2200000</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="8">
+        <v>16</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>40</v>
+      </c>
+      <c r="H25" s="8">
+        <v>15</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2">
-        <v>3100000</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="N25" s="2">
+        <v>-1</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2482,42 +2950,52 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-    </row>
-    <row r="26" ht="40.5" spans="1:22">
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" s="2">
-        <v>3100000</v>
+        <v>2300000</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="2">
-        <v>3100000</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="8">
+        <v>16</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>40</v>
+      </c>
+      <c r="H26" s="8">
+        <v>15</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2">
-        <v>3110000</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2">
-        <v>3120000</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2">
+        <v>-1</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -2526,36 +3004,54 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-    </row>
-    <row r="27" ht="40.5" spans="1:22">
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="2">
-        <v>3110000</v>
+        <v>3000000</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2">
+        <v>38</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="8">
+        <v>16</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>40</v>
+      </c>
+      <c r="H27" s="8">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="J27" s="2">
         <v>1</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2">
-        <v>-2</v>
-      </c>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" s="2">
+        <v>3100000</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -2564,84 +3060,112 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-    </row>
-    <row r="28" ht="27" spans="1:22">
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+    </row>
+    <row r="28" ht="27" spans="1:30">
       <c r="A28" s="2">
+        <v>3100000</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="8">
+        <v>16</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>40</v>
+      </c>
+      <c r="H28" s="8">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2">
+        <v>3100000</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2">
+        <v>3110000</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2">
         <v>3120000</v>
       </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="2">
-        <v>3120000</v>
-      </c>
-      <c r="F28" s="2">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" s="2">
-        <v>3110001</v>
-      </c>
-      <c r="J28" s="2">
-        <v>3120000</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L28" s="2">
-        <v>3110002</v>
-      </c>
-      <c r="M28" s="2">
-        <v>3120000</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" s="2">
-        <v>4000000</v>
+        <v>3110000</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="8">
+        <v>16</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>40</v>
+      </c>
+      <c r="H29" s="8">
+        <v>15</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="N29" s="2">
+        <v>-2</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -2650,17 +3174,143 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="2">
+        <v>3120000</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="8">
+        <v>16</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>40</v>
+      </c>
+      <c r="H30" s="8">
+        <v>15</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3120000</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M30" s="2">
+        <v>3110001</v>
+      </c>
+      <c r="N30" s="2">
+        <v>3120000</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>3110002</v>
+      </c>
+      <c r="R30" s="2">
+        <v>3120000</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="8">
+        <v>16</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>40</v>
+      </c>
+      <c r="H31" s="8">
+        <v>15</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B1 C1 D1 E1:H1 I1 J1:K1 L1 M1:N1 O1 P1:Q1 R1 S1:T1 U1 V1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:B3 C3 D3 E3 F3 G3 H3 I3:L3 M3 N3 O3 P3 Q3 R3 S3 T3 U3 V3 W3 X3 Y3 Z3 AA3 AB3 AC3 AD3">
+      <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B1 C1 D1 E1 F1 G1 H1 I1:L1 M1 N1 O1 P1 Q1 R1 S1 T1 U1 V1 W1 X1 Y1 Z1 AA1 AB1 AC1 AD1">
       <formula1>"CS,S,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B2 C2 D2 E2:H2 I2 J2:K2 L2 M2:N2 O2 P2:Q2 R2 S2:T2 U2 V2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B2 C2 D2 E2:H2 I2:K2 L2 M2 N2 O2 P2:R2 S2 T2:V2 W2 X2:Z2 AA2 AB2:AD2">
       <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:B3 C3 D3 E3:H3 I3 J3:K3 L3 M3:N3 O3 P3:Q3 R3 S3:T3 U3 V3">
-      <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2681,10 +3331,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2692,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2700,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2708,7 +3358,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2716,7 +3366,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2724,7 +3374,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:1">
